--- a/statistics_files/2024/2024_99_z_state_survey.x.xlsx
+++ b/statistics_files/2024/2024_99_z_state_survey.x.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF810938-BFAE-4814-A5BB-46A8025C14A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D526C2B-B2D9-42BD-8C26-99F319390045}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="717" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,25 +31,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'State Survey-2021 data'!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'State Survey-2022 data'!$A$1:$M$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'State Survey-2023 data'!$A$1:$N$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'State Survey-2024 data'!$A$1:$V$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'State Survey-2024 data'!$A$1:$W$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="193">
   <si>
     <t>branchcode</t>
   </si>
@@ -624,6 +613,12 @@
   </si>
   <si>
     <t>Question 11.1b - total circulation of adult materials</t>
+  </si>
+  <si>
+    <t>Question 10.5a - provide annual circulation for WIFI hotspots</t>
+  </si>
+  <si>
+    <t>Question 11.4a - Total circulation of print materials</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1605,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1618,25 +1613,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72339743-29E1-4007-A046-5505500D715D}">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="7" customWidth="1"/>
-    <col min="2" max="20" width="16.7109375" style="7" customWidth="1"/>
-    <col min="21" max="21" width="23.85546875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" style="7" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" style="7" customWidth="1"/>
+    <col min="2" max="21" width="16.6640625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="23.88671875" style="7" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" style="7" customWidth="1"/>
+    <col min="24" max="24" width="23.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1657,7 @@
         <v>175</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>182</v>
@@ -1688,26 +1683,29 @@
       <c r="Q1" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="S1" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="U1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="V1" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="W1" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="X1" s="26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>106</v>
       </c>
@@ -1739,19 +1737,21 @@
         <v>20742</v>
       </c>
       <c r="K2" s="1">
-        <v>10148</v>
+        <v>11251</v>
       </c>
       <c r="L2" s="1">
-        <v>30890</v>
+        <f>SUM(J2:K2)</f>
+        <v>31993</v>
       </c>
       <c r="M2" s="1">
         <v>35362</v>
       </c>
       <c r="N2" s="1">
-        <v>2991</v>
+        <v>3158</v>
       </c>
       <c r="O2" s="1">
-        <v>38353</v>
+        <f>SUM(M2:N2)</f>
+        <v>38520</v>
       </c>
       <c r="P2" s="14" t="s">
         <v>177</v>
@@ -1761,26 +1761,31 @@
         <v>56104</v>
       </c>
       <c r="R2" s="14">
-        <v>673</v>
+        <f>SUM(J2,M2)</f>
+        <v>56104</v>
       </c>
       <c r="S2" s="14">
-        <f>SUM(L2,O2,R2)</f>
-        <v>69916</v>
-      </c>
-      <c r="T2" s="1">
+        <f>SUM(K2,N2)</f>
+        <v>14409</v>
+      </c>
+      <c r="T2" s="14">
+        <f>SUM(L2,O2)</f>
+        <v>70513</v>
+      </c>
+      <c r="U2" s="1">
+        <v>11835</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W2" s="1">
         <v>10922</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="X2" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V2" s="1">
-        <v>11835</v>
-      </c>
-      <c r="W2" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>107</v>
       </c>
@@ -1809,51 +1814,58 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>12777</v>
+        <v>12779</v>
       </c>
       <c r="K3" s="2">
-        <v>3250</v>
+        <v>4472</v>
       </c>
       <c r="L3" s="2">
-        <v>16027</v>
+        <f t="shared" ref="L3:L55" si="0">SUM(J3:K3)</f>
+        <v>17251</v>
       </c>
       <c r="M3" s="2">
         <v>22842</v>
       </c>
       <c r="N3" s="2">
-        <v>1385</v>
+        <v>1559</v>
       </c>
       <c r="O3" s="2">
-        <v>24227</v>
+        <f t="shared" ref="O3:O55" si="1">SUM(M3:N3)</f>
+        <v>24401</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q3" s="15">
-        <f t="shared" ref="Q3:Q55" si="0">SUM(J3,M3)</f>
-        <v>35619</v>
+        <f t="shared" ref="Q3:Q55" si="2">SUM(J3,M3)</f>
+        <v>35621</v>
       </c>
       <c r="R3" s="15">
-        <v>1295</v>
+        <f t="shared" ref="R3:R55" si="3">SUM(J3,M3)</f>
+        <v>35621</v>
       </c>
       <c r="S3" s="15">
-        <f t="shared" ref="S3:S55" si="1">SUM(L3,O3,R3)</f>
-        <v>41549</v>
-      </c>
-      <c r="T3" s="2">
+        <f t="shared" ref="S3:S55" si="4">SUM(K3,N3)</f>
+        <v>6031</v>
+      </c>
+      <c r="T3" s="15">
+        <f t="shared" ref="T3:T55" si="5">SUM(L3,O3)</f>
+        <v>41652</v>
+      </c>
+      <c r="U3" s="2">
+        <v>5218</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W3" s="2">
         <v>3882</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="X3" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V3" s="2">
-        <v>5218</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>108</v>
       </c>
@@ -1885,48 +1897,55 @@
         <v>28529</v>
       </c>
       <c r="K4" s="1">
-        <v>12304</v>
+        <v>12923</v>
       </c>
       <c r="L4" s="1">
-        <v>40833</v>
+        <f t="shared" si="0"/>
+        <v>41452</v>
       </c>
       <c r="M4" s="1">
         <v>61973</v>
       </c>
       <c r="N4" s="1">
-        <v>5108</v>
+        <v>7163</v>
       </c>
       <c r="O4" s="1">
-        <v>67081</v>
+        <f t="shared" si="1"/>
+        <v>69136</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q4" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90502</v>
       </c>
       <c r="R4" s="14">
-        <v>2435</v>
+        <f t="shared" si="3"/>
+        <v>90502</v>
       </c>
       <c r="S4" s="14">
-        <f t="shared" si="1"/>
-        <v>110349</v>
-      </c>
-      <c r="T4" s="1">
+        <f t="shared" si="4"/>
+        <v>20086</v>
+      </c>
+      <c r="T4" s="14">
+        <f t="shared" si="5"/>
+        <v>110588</v>
+      </c>
+      <c r="U4" s="1">
+        <v>9894</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W4" s="1">
         <v>10614</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="X4" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V4" s="1">
-        <v>9894</v>
-      </c>
-      <c r="W4" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
@@ -1958,48 +1977,55 @@
         <v>607</v>
       </c>
       <c r="K5" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L5" s="2">
-        <v>949</v>
+        <f t="shared" si="0"/>
+        <v>952</v>
       </c>
       <c r="M5" s="2">
         <v>965</v>
       </c>
       <c r="N5" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2">
-        <v>1065</v>
+        <f t="shared" si="1"/>
+        <v>1067</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q5" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1572</v>
       </c>
       <c r="R5" s="15">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1572</v>
       </c>
       <c r="S5" s="15">
-        <f t="shared" si="1"/>
-        <v>2016</v>
-      </c>
-      <c r="T5" s="2">
+        <f t="shared" si="4"/>
+        <v>447</v>
+      </c>
+      <c r="T5" s="15">
+        <f t="shared" si="5"/>
+        <v>2019</v>
+      </c>
+      <c r="U5" s="2">
+        <v>303</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W5" s="2">
         <v>1094</v>
       </c>
-      <c r="U5" s="28" t="s">
+      <c r="X5" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V5" s="2">
-        <v>303</v>
-      </c>
-      <c r="W5" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
@@ -2031,48 +2057,55 @@
         <v>22640</v>
       </c>
       <c r="K6" s="1">
-        <v>7870</v>
+        <v>9049</v>
       </c>
       <c r="L6" s="1">
-        <v>30510</v>
+        <f t="shared" si="0"/>
+        <v>31689</v>
       </c>
       <c r="M6" s="1">
         <v>37910</v>
       </c>
       <c r="N6" s="1">
-        <v>3386</v>
+        <v>4275</v>
       </c>
       <c r="O6" s="1">
-        <v>41296</v>
+        <f t="shared" si="1"/>
+        <v>42185</v>
       </c>
       <c r="P6" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60550</v>
       </c>
       <c r="R6" s="14">
-        <v>1502</v>
+        <f t="shared" si="3"/>
+        <v>60550</v>
       </c>
       <c r="S6" s="14">
-        <f t="shared" si="1"/>
-        <v>73308</v>
-      </c>
-      <c r="T6" s="1">
+        <f t="shared" si="4"/>
+        <v>13324</v>
+      </c>
+      <c r="T6" s="14">
+        <f t="shared" si="5"/>
+        <v>73874</v>
+      </c>
+      <c r="U6" s="1">
+        <v>9124</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W6" s="1">
         <v>12756</v>
       </c>
-      <c r="U6" s="27" t="s">
+      <c r="X6" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V6" s="1">
-        <v>9124</v>
-      </c>
-      <c r="W6" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>111</v>
       </c>
@@ -2104,48 +2137,55 @@
         <v>2625</v>
       </c>
       <c r="K7" s="2">
-        <v>1492</v>
+        <v>1609</v>
       </c>
       <c r="L7" s="2">
-        <v>4117</v>
+        <f t="shared" si="0"/>
+        <v>4234</v>
       </c>
       <c r="M7" s="2">
         <v>3623</v>
       </c>
       <c r="N7" s="2">
-        <v>625</v>
+        <v>662</v>
       </c>
       <c r="O7" s="2">
-        <v>4248</v>
+        <f t="shared" si="1"/>
+        <v>4285</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6248</v>
       </c>
       <c r="R7" s="15">
-        <v>127</v>
+        <f t="shared" si="3"/>
+        <v>6248</v>
       </c>
       <c r="S7" s="15">
-        <f t="shared" si="1"/>
-        <v>8492</v>
-      </c>
-      <c r="T7" s="2">
+        <f t="shared" si="4"/>
+        <v>2271</v>
+      </c>
+      <c r="T7" s="15">
+        <f t="shared" si="5"/>
+        <v>8519</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1817</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W7" s="2">
         <v>1699</v>
       </c>
-      <c r="U7" s="28" t="s">
+      <c r="X7" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V7" s="2">
-        <v>1817</v>
-      </c>
-      <c r="W7" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>112</v>
       </c>
@@ -2177,48 +2217,55 @@
         <v>3978</v>
       </c>
       <c r="K8" s="1">
-        <v>1242</v>
+        <v>1251</v>
       </c>
       <c r="L8" s="1">
-        <v>5220</v>
+        <f t="shared" si="0"/>
+        <v>5229</v>
       </c>
       <c r="M8" s="1">
         <v>3089</v>
       </c>
       <c r="N8" s="1">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="O8" s="1">
-        <v>3581</v>
+        <f t="shared" si="1"/>
+        <v>3600</v>
       </c>
       <c r="P8" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7067</v>
       </c>
       <c r="R8" s="14">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>7067</v>
       </c>
       <c r="S8" s="14">
-        <f t="shared" si="1"/>
-        <v>8827</v>
-      </c>
-      <c r="T8" s="1">
+        <f t="shared" si="4"/>
+        <v>1762</v>
+      </c>
+      <c r="T8" s="14">
+        <f t="shared" si="5"/>
+        <v>8829</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1260</v>
+      </c>
+      <c r="V8" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W8" s="1">
         <v>1878</v>
       </c>
-      <c r="U8" s="27" t="s">
+      <c r="X8" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V8" s="1">
-        <v>1260</v>
-      </c>
-      <c r="W8" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>113</v>
       </c>
@@ -2253,6 +2300,7 @@
         <v>229</v>
       </c>
       <c r="L9" s="2">
+        <f t="shared" si="0"/>
         <v>2501</v>
       </c>
       <c r="M9" s="2">
@@ -2262,36 +2310,42 @@
         <v>82</v>
       </c>
       <c r="O9" s="2">
+        <f t="shared" si="1"/>
         <v>1653</v>
       </c>
       <c r="P9" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3843</v>
       </c>
       <c r="R9" s="15">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3843</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>311</v>
+      </c>
+      <c r="T9" s="15">
+        <f t="shared" si="5"/>
         <v>4154</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
+        <v>340</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W9" s="2">
         <v>647</v>
       </c>
-      <c r="U9" s="28" t="s">
+      <c r="X9" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V9" s="2">
-        <v>340</v>
-      </c>
-      <c r="W9" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>114</v>
       </c>
@@ -2326,45 +2380,52 @@
         <v>9</v>
       </c>
       <c r="L10" s="1">
+        <f t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="M10" s="1">
         <v>1374</v>
       </c>
       <c r="N10" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O10" s="1">
-        <v>1400</v>
+        <f t="shared" si="1"/>
+        <v>1403</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1513</v>
       </c>
       <c r="R10" s="14">
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1513</v>
       </c>
       <c r="S10" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="T10" s="14">
+        <f t="shared" si="5"/>
         <v>1551</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
+        <v>4</v>
+      </c>
+      <c r="V10" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W10" s="1">
         <v>475</v>
       </c>
-      <c r="U10" s="27" t="s">
+      <c r="X10" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V10" s="1">
-        <v>4</v>
-      </c>
-      <c r="W10" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>115</v>
       </c>
@@ -2399,6 +2460,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="2">
@@ -2408,36 +2470,42 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="15">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="28" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="28" t="s">
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>116</v>
       </c>
@@ -2469,48 +2537,55 @@
         <v>405</v>
       </c>
       <c r="K12" s="3">
-        <v>240</v>
+        <v>403</v>
       </c>
       <c r="L12" s="3">
-        <v>645</v>
+        <f t="shared" si="0"/>
+        <v>808</v>
       </c>
       <c r="M12" s="3">
         <v>481</v>
       </c>
       <c r="N12" s="3">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="O12" s="3">
-        <v>558</v>
+        <f t="shared" si="1"/>
+        <v>620</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>177</v>
       </c>
       <c r="Q12" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>886</v>
       </c>
       <c r="R12" s="16">
-        <v>57</v>
+        <f t="shared" si="3"/>
+        <v>886</v>
       </c>
       <c r="S12" s="16">
-        <f t="shared" si="1"/>
-        <v>1260</v>
-      </c>
-      <c r="T12" s="3">
+        <f t="shared" si="4"/>
+        <v>542</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" si="5"/>
+        <v>1428</v>
+      </c>
+      <c r="U12" s="3">
+        <v>448</v>
+      </c>
+      <c r="V12" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="W12" s="3">
         <v>304</v>
       </c>
-      <c r="U12" s="29" t="s">
+      <c r="X12" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="V12" s="3">
-        <v>448</v>
-      </c>
-      <c r="W12" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>117</v>
       </c>
@@ -2542,48 +2617,55 @@
         <v>1102</v>
       </c>
       <c r="K13" s="3">
-        <v>1145</v>
+        <v>1494</v>
       </c>
       <c r="L13" s="3">
-        <v>2247</v>
+        <f t="shared" si="0"/>
+        <v>2596</v>
       </c>
       <c r="M13" s="3">
         <v>1148</v>
       </c>
       <c r="N13" s="3">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="O13" s="3">
-        <v>1447</v>
+        <f t="shared" si="1"/>
+        <v>1468</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>177</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2250</v>
       </c>
       <c r="R13" s="16">
-        <v>262</v>
+        <f t="shared" si="3"/>
+        <v>2250</v>
       </c>
       <c r="S13" s="16">
-        <f t="shared" si="1"/>
-        <v>3956</v>
-      </c>
-      <c r="T13" s="3">
+        <f t="shared" si="4"/>
+        <v>1814</v>
+      </c>
+      <c r="T13" s="16">
+        <f t="shared" si="5"/>
+        <v>4064</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1477</v>
+      </c>
+      <c r="V13" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="W13" s="3">
         <v>1539</v>
       </c>
-      <c r="U13" s="29" t="s">
+      <c r="X13" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="V13" s="3">
-        <v>1477</v>
-      </c>
-      <c r="W13" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>118</v>
       </c>
@@ -2615,48 +2697,55 @@
         <v>3350</v>
       </c>
       <c r="K14" s="3">
-        <v>658</v>
+        <v>876</v>
       </c>
       <c r="L14" s="3">
-        <v>4008</v>
+        <f t="shared" si="0"/>
+        <v>4226</v>
       </c>
       <c r="M14" s="3">
         <v>2819</v>
       </c>
       <c r="N14" s="3">
-        <v>435</v>
+        <v>508</v>
       </c>
       <c r="O14" s="3">
-        <v>3254</v>
+        <f t="shared" si="1"/>
+        <v>3327</v>
       </c>
       <c r="P14" s="16" t="s">
         <v>177</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6169</v>
       </c>
       <c r="R14" s="16">
-        <v>216</v>
+        <f t="shared" si="3"/>
+        <v>6169</v>
       </c>
       <c r="S14" s="16">
-        <f t="shared" si="1"/>
-        <v>7478</v>
-      </c>
-      <c r="T14" s="3">
+        <f t="shared" si="4"/>
+        <v>1384</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" si="5"/>
+        <v>7553</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1542</v>
+      </c>
+      <c r="V14" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="W14" s="3">
         <v>2588</v>
       </c>
-      <c r="U14" s="29" t="s">
+      <c r="X14" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="V14" s="3">
-        <v>1542</v>
-      </c>
-      <c r="W14" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>119</v>
       </c>
@@ -2688,48 +2777,55 @@
         <v>1707</v>
       </c>
       <c r="K15" s="3">
-        <v>509</v>
+        <v>590</v>
       </c>
       <c r="L15" s="3">
-        <v>2216</v>
+        <f t="shared" si="0"/>
+        <v>2297</v>
       </c>
       <c r="M15" s="3">
         <v>2389</v>
       </c>
       <c r="N15" s="3">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="O15" s="3">
-        <v>2714</v>
+        <f t="shared" si="1"/>
+        <v>2743</v>
       </c>
       <c r="P15" s="16" t="s">
         <v>177</v>
       </c>
       <c r="Q15" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4096</v>
       </c>
       <c r="R15" s="16">
-        <v>89</v>
+        <f t="shared" si="3"/>
+        <v>4096</v>
       </c>
       <c r="S15" s="16">
-        <f t="shared" si="1"/>
-        <v>5019</v>
-      </c>
-      <c r="T15" s="3">
+        <f t="shared" si="4"/>
+        <v>944</v>
+      </c>
+      <c r="T15" s="16">
+        <f t="shared" si="5"/>
+        <v>5040</v>
+      </c>
+      <c r="U15" s="3">
+        <v>618</v>
+      </c>
+      <c r="V15" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="W15" s="3">
         <v>2778</v>
       </c>
-      <c r="U15" s="29" t="s">
+      <c r="X15" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="V15" s="3">
-        <v>618</v>
-      </c>
-      <c r="W15" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>120</v>
       </c>
@@ -2761,48 +2857,55 @@
         <v>1775</v>
       </c>
       <c r="K16" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L16" s="2">
-        <v>1902</v>
+        <f t="shared" si="0"/>
+        <v>1906</v>
       </c>
       <c r="M16" s="2">
         <v>2090</v>
       </c>
       <c r="N16" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O16" s="2">
-        <v>2211</v>
+        <f t="shared" si="1"/>
+        <v>2215</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3865</v>
       </c>
       <c r="R16" s="15">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>3865</v>
       </c>
       <c r="S16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="T16" s="15">
+        <f t="shared" si="5"/>
         <v>4121</v>
       </c>
-      <c r="T16" s="2">
+      <c r="U16" s="2">
+        <v>535</v>
+      </c>
+      <c r="V16" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W16" s="2">
         <v>1351</v>
       </c>
-      <c r="U16" s="28" t="s">
+      <c r="X16" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V16" s="2">
-        <v>535</v>
-      </c>
-      <c r="W16" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>121</v>
       </c>
@@ -2834,48 +2937,55 @@
         <v>7970</v>
       </c>
       <c r="K17" s="1">
-        <v>2053</v>
+        <v>2361</v>
       </c>
       <c r="L17" s="1">
-        <v>10023</v>
+        <f t="shared" si="0"/>
+        <v>10331</v>
       </c>
       <c r="M17" s="1">
         <v>15847</v>
       </c>
       <c r="N17" s="1">
-        <v>1052</v>
+        <v>1130</v>
       </c>
       <c r="O17" s="1">
-        <v>16899</v>
+        <f t="shared" si="1"/>
+        <v>16977</v>
       </c>
       <c r="P17" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q17" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23817</v>
       </c>
       <c r="R17" s="14">
-        <v>304</v>
+        <f t="shared" si="3"/>
+        <v>23817</v>
       </c>
       <c r="S17" s="14">
-        <f t="shared" si="1"/>
-        <v>27226</v>
-      </c>
-      <c r="T17" s="1">
+        <f t="shared" si="4"/>
+        <v>3491</v>
+      </c>
+      <c r="T17" s="14">
+        <f t="shared" si="5"/>
+        <v>27308</v>
+      </c>
+      <c r="U17" s="1">
+        <v>5174</v>
+      </c>
+      <c r="V17" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W17" s="1">
         <v>3914</v>
       </c>
-      <c r="U17" s="27" t="s">
+      <c r="X17" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V17" s="1">
-        <v>5174</v>
-      </c>
-      <c r="W17" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>122</v>
       </c>
@@ -2910,6 +3020,7 @@
         <v>220</v>
       </c>
       <c r="L18" s="2">
+        <f t="shared" si="0"/>
         <v>777</v>
       </c>
       <c r="M18" s="2">
@@ -2919,36 +3030,42 @@
         <v>95</v>
       </c>
       <c r="O18" s="2">
+        <f t="shared" si="1"/>
         <v>1352</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q18" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1814</v>
       </c>
       <c r="R18" s="15">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1814</v>
       </c>
       <c r="S18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="T18" s="15">
+        <f t="shared" si="5"/>
         <v>2129</v>
       </c>
-      <c r="T18" s="2">
+      <c r="U18" s="2">
+        <v>546</v>
+      </c>
+      <c r="V18" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W18" s="2">
         <v>992</v>
       </c>
-      <c r="U18" s="28" t="s">
+      <c r="X18" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V18" s="2">
-        <v>546</v>
-      </c>
-      <c r="W18" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>123</v>
       </c>
@@ -2980,48 +3097,55 @@
         <v>10601</v>
       </c>
       <c r="K19" s="1">
-        <v>2683</v>
+        <v>2750</v>
       </c>
       <c r="L19" s="1">
-        <v>13284</v>
+        <f t="shared" si="0"/>
+        <v>13351</v>
       </c>
       <c r="M19" s="1">
         <v>13284</v>
       </c>
       <c r="N19" s="1">
-        <v>875</v>
+        <v>910</v>
       </c>
       <c r="O19" s="1">
-        <v>14159</v>
+        <f t="shared" si="1"/>
+        <v>14194</v>
       </c>
       <c r="P19" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q19" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23885</v>
       </c>
       <c r="R19" s="14">
-        <v>102</v>
+        <f t="shared" si="3"/>
+        <v>23885</v>
       </c>
       <c r="S19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="T19" s="14">
+        <f t="shared" si="5"/>
         <v>27545</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
+        <v>4293</v>
+      </c>
+      <c r="V19" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W19" s="1">
         <v>3866</v>
       </c>
-      <c r="U19" s="27" t="s">
+      <c r="X19" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V19" s="1">
-        <v>4293</v>
-      </c>
-      <c r="W19" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>124</v>
       </c>
@@ -3050,13 +3174,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K20" s="2">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="L20" s="2">
-        <v>457</v>
+        <f t="shared" si="0"/>
+        <v>497</v>
       </c>
       <c r="M20" s="2">
         <v>58</v>
@@ -3065,36 +3190,42 @@
         <v>2</v>
       </c>
       <c r="O20" s="2">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="0"/>
-        <v>325</v>
+        <f t="shared" si="2"/>
+        <v>326</v>
       </c>
       <c r="R20" s="15">
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>326</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>231</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" si="5"/>
         <v>557</v>
       </c>
-      <c r="T20" s="2">
+      <c r="U20" s="2">
+        <v>185</v>
+      </c>
+      <c r="V20" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W20" s="2">
         <v>627</v>
       </c>
-      <c r="U20" s="28" t="s">
+      <c r="X20" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V20" s="2">
-        <v>185</v>
-      </c>
-      <c r="W20" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>125</v>
       </c>
@@ -3126,48 +3257,55 @@
         <v>10889</v>
       </c>
       <c r="K21" s="1">
-        <v>3988</v>
+        <v>4291</v>
       </c>
       <c r="L21" s="1">
-        <v>14877</v>
+        <f t="shared" si="0"/>
+        <v>15180</v>
       </c>
       <c r="M21" s="1">
         <v>10779</v>
       </c>
       <c r="N21" s="1">
-        <v>1418</v>
+        <v>1465</v>
       </c>
       <c r="O21" s="1">
-        <v>12197</v>
+        <f t="shared" si="1"/>
+        <v>12244</v>
       </c>
       <c r="P21" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q21" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21668</v>
       </c>
       <c r="R21" s="14">
-        <v>350</v>
+        <f t="shared" si="3"/>
+        <v>21668</v>
       </c>
       <c r="S21" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>5756</v>
+      </c>
+      <c r="T21" s="14">
+        <f t="shared" si="5"/>
         <v>27424</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
+        <v>4782</v>
+      </c>
+      <c r="V21" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W21" s="1">
         <v>3099</v>
       </c>
-      <c r="U21" s="27" t="s">
+      <c r="X21" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V21" s="1">
-        <v>4782</v>
-      </c>
-      <c r="W21" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>126</v>
       </c>
@@ -3199,48 +3337,55 @@
         <v>1107</v>
       </c>
       <c r="K22" s="2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="L22" s="2">
-        <v>1407</v>
+        <f t="shared" si="0"/>
+        <v>1424</v>
       </c>
       <c r="M22" s="2">
         <v>525</v>
       </c>
       <c r="N22" s="2">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O22" s="2">
-        <v>548</v>
+        <f t="shared" si="1"/>
+        <v>581</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q22" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1632</v>
       </c>
       <c r="R22" s="15">
-        <v>42</v>
+        <f t="shared" si="3"/>
+        <v>1632</v>
       </c>
       <c r="S22" s="15">
-        <f t="shared" si="1"/>
-        <v>1997</v>
-      </c>
-      <c r="T22" s="2">
+        <f t="shared" si="4"/>
+        <v>373</v>
+      </c>
+      <c r="T22" s="15">
+        <f t="shared" si="5"/>
+        <v>2005</v>
+      </c>
+      <c r="U22" s="2">
+        <v>335</v>
+      </c>
+      <c r="V22" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W22" s="2">
         <v>1099</v>
       </c>
-      <c r="U22" s="28" t="s">
+      <c r="X22" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V22" s="2">
-        <v>335</v>
-      </c>
-      <c r="W22" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>127</v>
       </c>
@@ -3272,48 +3417,55 @@
         <v>10265</v>
       </c>
       <c r="K23" s="1">
-        <v>2685</v>
+        <v>3423</v>
       </c>
       <c r="L23" s="1">
-        <v>12950</v>
+        <f t="shared" si="0"/>
+        <v>13688</v>
       </c>
       <c r="M23" s="1">
         <v>15551</v>
       </c>
       <c r="N23" s="1">
-        <v>1248</v>
+        <v>1390</v>
       </c>
       <c r="O23" s="1">
-        <v>16799</v>
+        <f t="shared" si="1"/>
+        <v>16941</v>
       </c>
       <c r="P23" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q23" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25816</v>
       </c>
       <c r="R23" s="14">
-        <v>853</v>
+        <f t="shared" si="3"/>
+        <v>25816</v>
       </c>
       <c r="S23" s="14">
-        <f t="shared" si="1"/>
-        <v>30602</v>
-      </c>
-      <c r="T23" s="1">
+        <f t="shared" si="4"/>
+        <v>4813</v>
+      </c>
+      <c r="T23" s="14">
+        <f t="shared" si="5"/>
+        <v>30629</v>
+      </c>
+      <c r="U23" s="1">
+        <v>5685</v>
+      </c>
+      <c r="V23" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W23" s="1">
         <v>3090</v>
       </c>
-      <c r="U23" s="27" t="s">
+      <c r="X23" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V23" s="1">
-        <v>5685</v>
-      </c>
-      <c r="W23" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>128</v>
       </c>
@@ -3345,48 +3497,55 @@
         <v>36195</v>
       </c>
       <c r="K24" s="2">
-        <v>20059</v>
+        <v>23289</v>
       </c>
       <c r="L24" s="2">
-        <v>56254</v>
+        <f t="shared" si="0"/>
+        <v>59484</v>
       </c>
       <c r="M24" s="2">
         <v>56165</v>
       </c>
       <c r="N24" s="2">
-        <v>6609</v>
+        <v>6861</v>
       </c>
       <c r="O24" s="2">
-        <v>62774</v>
+        <f t="shared" si="1"/>
+        <v>63026</v>
       </c>
       <c r="P24" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q24" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>92360</v>
       </c>
       <c r="R24" s="15">
-        <v>2708</v>
+        <f t="shared" si="3"/>
+        <v>92360</v>
       </c>
       <c r="S24" s="15">
-        <f t="shared" si="1"/>
-        <v>121736</v>
-      </c>
-      <c r="T24" s="2">
+        <f t="shared" si="4"/>
+        <v>30150</v>
+      </c>
+      <c r="T24" s="15">
+        <f t="shared" si="5"/>
+        <v>122510</v>
+      </c>
+      <c r="U24" s="2">
+        <v>13846</v>
+      </c>
+      <c r="V24" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W24" s="2">
         <v>10493</v>
       </c>
-      <c r="U24" s="28" t="s">
+      <c r="X24" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V24" s="2">
-        <v>13846</v>
-      </c>
-      <c r="W24" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>129</v>
       </c>
@@ -3418,48 +3577,55 @@
         <v>2578</v>
       </c>
       <c r="K25" s="1">
-        <v>1105</v>
+        <v>1164</v>
       </c>
       <c r="L25" s="1">
-        <v>3683</v>
+        <f t="shared" si="0"/>
+        <v>3742</v>
       </c>
       <c r="M25" s="1">
         <v>4578</v>
       </c>
       <c r="N25" s="1">
-        <v>802</v>
+        <v>1061</v>
       </c>
       <c r="O25" s="1">
-        <v>5380</v>
+        <f t="shared" si="1"/>
+        <v>5639</v>
       </c>
       <c r="P25" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q25" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7156</v>
       </c>
       <c r="R25" s="14">
-        <v>318</v>
+        <f t="shared" si="3"/>
+        <v>7156</v>
       </c>
       <c r="S25" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>2225</v>
+      </c>
+      <c r="T25" s="14">
+        <f t="shared" si="5"/>
         <v>9381</v>
       </c>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
+        <v>1335</v>
+      </c>
+      <c r="V25" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W25" s="1">
         <v>3716</v>
       </c>
-      <c r="U25" s="27" t="s">
+      <c r="X25" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V25" s="1">
-        <v>1335</v>
-      </c>
-      <c r="W25" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>130</v>
       </c>
@@ -3494,6 +3660,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M26" s="2">
@@ -3503,36 +3670,42 @@
         <v>0</v>
       </c>
       <c r="O26" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P26" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R26" s="15">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S26" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="2">
-        <v>0</v>
-      </c>
-      <c r="U26" s="28" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V26" s="2">
-        <v>0</v>
-      </c>
-      <c r="W26" s="28" t="s">
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>131</v>
       </c>
@@ -3564,48 +3737,55 @@
         <v>3727</v>
       </c>
       <c r="K27" s="1">
-        <v>987</v>
+        <v>1134</v>
       </c>
       <c r="L27" s="1">
-        <v>4714</v>
+        <f t="shared" si="0"/>
+        <v>4861</v>
       </c>
       <c r="M27" s="1">
         <v>2929</v>
       </c>
       <c r="N27" s="1">
-        <v>366</v>
+        <v>443</v>
       </c>
       <c r="O27" s="1">
-        <v>3295</v>
+        <f t="shared" si="1"/>
+        <v>3372</v>
       </c>
       <c r="P27" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q27" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6656</v>
       </c>
       <c r="R27" s="14">
-        <v>223</v>
+        <f t="shared" si="3"/>
+        <v>6656</v>
       </c>
       <c r="S27" s="14">
-        <f t="shared" si="1"/>
-        <v>8232</v>
-      </c>
-      <c r="T27" s="1">
+        <f t="shared" si="4"/>
+        <v>1577</v>
+      </c>
+      <c r="T27" s="14">
+        <f t="shared" si="5"/>
+        <v>8233</v>
+      </c>
+      <c r="U27" s="1">
+        <v>2033</v>
+      </c>
+      <c r="V27" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W27" s="1">
         <v>1898</v>
       </c>
-      <c r="U27" s="27" t="s">
+      <c r="X27" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V27" s="1">
-        <v>2033</v>
-      </c>
-      <c r="W27" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>132</v>
       </c>
@@ -3637,48 +3817,55 @@
         <v>1060</v>
       </c>
       <c r="K28" s="2">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L28" s="2">
-        <v>1401</v>
+        <f t="shared" si="0"/>
+        <v>1419</v>
       </c>
       <c r="M28" s="2">
         <v>2142</v>
       </c>
       <c r="N28" s="2">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="O28" s="2">
-        <v>2346</v>
+        <f t="shared" si="1"/>
+        <v>2363</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q28" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3202</v>
       </c>
       <c r="R28" s="15">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>3202</v>
       </c>
       <c r="S28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>580</v>
+      </c>
+      <c r="T28" s="15">
+        <f t="shared" si="5"/>
         <v>3782</v>
       </c>
-      <c r="T28" s="2">
+      <c r="U28" s="2">
+        <v>789</v>
+      </c>
+      <c r="V28" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W28" s="2">
         <v>863</v>
       </c>
-      <c r="U28" s="28" t="s">
+      <c r="X28" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V28" s="2">
-        <v>789</v>
-      </c>
-      <c r="W28" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>133</v>
       </c>
@@ -3710,48 +3897,55 @@
         <v>7050</v>
       </c>
       <c r="K29" s="1">
-        <v>1672</v>
+        <v>1922</v>
       </c>
       <c r="L29" s="1">
-        <v>8722</v>
+        <f t="shared" si="0"/>
+        <v>8972</v>
       </c>
       <c r="M29" s="1">
         <v>13055</v>
       </c>
       <c r="N29" s="1">
-        <v>1275</v>
+        <v>1335</v>
       </c>
       <c r="O29" s="1">
-        <v>14330</v>
+        <f t="shared" si="1"/>
+        <v>14390</v>
       </c>
       <c r="P29" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q29" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20105</v>
       </c>
       <c r="R29" s="14">
-        <v>310</v>
+        <f t="shared" si="3"/>
+        <v>20105</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>3257</v>
+      </c>
+      <c r="T29" s="14">
+        <f t="shared" si="5"/>
         <v>23362</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
+        <v>4695</v>
+      </c>
+      <c r="V29" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W29" s="1">
         <v>4144</v>
       </c>
-      <c r="U29" s="27" t="s">
+      <c r="X29" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V29" s="1">
-        <v>4695</v>
-      </c>
-      <c r="W29" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>134</v>
       </c>
@@ -3783,48 +3977,55 @@
         <v>486</v>
       </c>
       <c r="K30" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L30" s="2">
-        <v>498</v>
+        <f t="shared" si="0"/>
+        <v>501</v>
       </c>
       <c r="M30" s="2">
         <v>200</v>
       </c>
       <c r="N30" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O30" s="2">
-        <v>202</v>
+        <f t="shared" si="1"/>
+        <v>206</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>686</v>
       </c>
       <c r="R30" s="15">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>686</v>
       </c>
       <c r="S30" s="15">
-        <f t="shared" si="1"/>
-        <v>705</v>
-      </c>
-      <c r="T30" s="2">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="T30" s="15">
+        <f t="shared" si="5"/>
+        <v>707</v>
+      </c>
+      <c r="U30" s="2">
+        <v>435</v>
+      </c>
+      <c r="V30" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W30" s="2">
         <v>168</v>
       </c>
-      <c r="U30" s="28" t="s">
+      <c r="X30" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V30" s="2">
-        <v>435</v>
-      </c>
-      <c r="W30" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>135</v>
       </c>
@@ -3856,48 +4057,55 @@
         <v>1270</v>
       </c>
       <c r="K31" s="1">
-        <v>525</v>
+        <v>568</v>
       </c>
       <c r="L31" s="1">
-        <v>1795</v>
+        <f t="shared" si="0"/>
+        <v>1838</v>
       </c>
       <c r="M31" s="1">
         <v>2176</v>
       </c>
       <c r="N31" s="1">
-        <v>335</v>
+        <v>476</v>
       </c>
       <c r="O31" s="1">
-        <v>2511</v>
+        <f t="shared" si="1"/>
+        <v>2652</v>
       </c>
       <c r="P31" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q31" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3446</v>
       </c>
       <c r="R31" s="14">
-        <v>183</v>
+        <f t="shared" si="3"/>
+        <v>3446</v>
       </c>
       <c r="S31" s="14">
-        <f t="shared" si="1"/>
-        <v>4489</v>
-      </c>
-      <c r="T31" s="1">
+        <f t="shared" si="4"/>
+        <v>1044</v>
+      </c>
+      <c r="T31" s="14">
+        <f t="shared" si="5"/>
+        <v>4490</v>
+      </c>
+      <c r="U31" s="1">
+        <v>477</v>
+      </c>
+      <c r="V31" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W31" s="1">
         <v>2568</v>
       </c>
-      <c r="U31" s="27" t="s">
+      <c r="X31" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V31" s="1">
-        <v>477</v>
-      </c>
-      <c r="W31" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>136</v>
       </c>
@@ -3929,48 +4137,55 @@
         <v>8702</v>
       </c>
       <c r="K32" s="2">
-        <v>4287</v>
+        <v>6403</v>
       </c>
       <c r="L32" s="2">
-        <v>12989</v>
+        <f t="shared" si="0"/>
+        <v>15105</v>
       </c>
       <c r="M32" s="2">
         <v>5726</v>
       </c>
       <c r="N32" s="2">
-        <v>990</v>
+        <v>1177</v>
       </c>
       <c r="O32" s="2">
-        <v>6716</v>
+        <f t="shared" si="1"/>
+        <v>6903</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q32" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14428</v>
       </c>
       <c r="R32" s="15">
-        <v>2139</v>
+        <f t="shared" si="3"/>
+        <v>14428</v>
       </c>
       <c r="S32" s="15">
-        <f t="shared" si="1"/>
-        <v>21844</v>
-      </c>
-      <c r="T32" s="2">
+        <f t="shared" si="4"/>
+        <v>7580</v>
+      </c>
+      <c r="T32" s="15">
+        <f t="shared" si="5"/>
+        <v>22008</v>
+      </c>
+      <c r="U32" s="2">
+        <v>4470</v>
+      </c>
+      <c r="V32" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W32" s="2">
         <v>5266</v>
       </c>
-      <c r="U32" s="28" t="s">
+      <c r="X32" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V32" s="2">
-        <v>4470</v>
-      </c>
-      <c r="W32" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>137</v>
       </c>
@@ -4002,48 +4217,55 @@
         <v>6966</v>
       </c>
       <c r="K33" s="1">
-        <v>1688</v>
+        <v>1760</v>
       </c>
       <c r="L33" s="1">
-        <v>8654</v>
+        <f t="shared" si="0"/>
+        <v>8726</v>
       </c>
       <c r="M33" s="1">
         <v>7994</v>
       </c>
       <c r="N33" s="1">
-        <v>684</v>
+        <v>735</v>
       </c>
       <c r="O33" s="1">
-        <v>8678</v>
+        <f t="shared" si="1"/>
+        <v>8729</v>
       </c>
       <c r="P33" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q33" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14960</v>
       </c>
       <c r="R33" s="14">
-        <v>121</v>
+        <f t="shared" si="3"/>
+        <v>14960</v>
       </c>
       <c r="S33" s="14">
-        <f t="shared" si="1"/>
-        <v>17453</v>
-      </c>
-      <c r="T33" s="1">
+        <f t="shared" si="4"/>
+        <v>2495</v>
+      </c>
+      <c r="T33" s="14">
+        <f t="shared" si="5"/>
+        <v>17455</v>
+      </c>
+      <c r="U33" s="1">
+        <v>3214</v>
+      </c>
+      <c r="V33" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W33" s="1">
         <v>5030</v>
       </c>
-      <c r="U33" s="27" t="s">
+      <c r="X33" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V33" s="1">
-        <v>3214</v>
-      </c>
-      <c r="W33" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>138</v>
       </c>
@@ -4075,48 +4297,55 @@
         <v>3448</v>
       </c>
       <c r="K34" s="2">
-        <v>1079</v>
+        <v>1787</v>
       </c>
       <c r="L34" s="2">
-        <v>4527</v>
+        <f t="shared" si="0"/>
+        <v>5235</v>
       </c>
       <c r="M34" s="2">
         <v>2356</v>
       </c>
       <c r="N34" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="O34" s="2">
-        <v>2644</v>
+        <f t="shared" si="1"/>
+        <v>2649</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q34" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5804</v>
       </c>
       <c r="R34" s="15">
-        <v>713</v>
+        <f t="shared" si="3"/>
+        <v>5804</v>
       </c>
       <c r="S34" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>2080</v>
+      </c>
+      <c r="T34" s="15">
+        <f t="shared" si="5"/>
         <v>7884</v>
       </c>
-      <c r="T34" s="2">
+      <c r="U34" s="2">
+        <v>1623</v>
+      </c>
+      <c r="V34" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W34" s="2">
         <v>1011</v>
       </c>
-      <c r="U34" s="28" t="s">
+      <c r="X34" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V34" s="2">
-        <v>1623</v>
-      </c>
-      <c r="W34" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>139</v>
       </c>
@@ -4148,48 +4377,55 @@
         <v>26979</v>
       </c>
       <c r="K35" s="1">
-        <v>7151</v>
+        <v>9045</v>
       </c>
       <c r="L35" s="1">
-        <v>34130</v>
+        <f t="shared" si="0"/>
+        <v>36024</v>
       </c>
       <c r="M35" s="1">
         <v>47549</v>
       </c>
       <c r="N35" s="1">
-        <v>4039</v>
+        <v>4223</v>
       </c>
       <c r="O35" s="1">
-        <v>51588</v>
+        <f t="shared" si="1"/>
+        <v>51772</v>
       </c>
       <c r="P35" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q35" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>74528</v>
       </c>
       <c r="R35" s="14">
-        <v>1956</v>
+        <f t="shared" si="3"/>
+        <v>74528</v>
       </c>
       <c r="S35" s="14">
-        <f t="shared" si="1"/>
-        <v>87674</v>
-      </c>
-      <c r="T35" s="1">
+        <f t="shared" si="4"/>
+        <v>13268</v>
+      </c>
+      <c r="T35" s="14">
+        <f t="shared" si="5"/>
+        <v>87796</v>
+      </c>
+      <c r="U35" s="1">
+        <v>8585</v>
+      </c>
+      <c r="V35" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W35" s="1">
         <v>10138</v>
       </c>
-      <c r="U35" s="27" t="s">
+      <c r="X35" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V35" s="1">
-        <v>8585</v>
-      </c>
-      <c r="W35" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>140</v>
       </c>
@@ -4221,48 +4457,55 @@
         <v>4104</v>
       </c>
       <c r="K36" s="2">
-        <v>2915</v>
+        <v>3023</v>
       </c>
       <c r="L36" s="2">
-        <v>7019</v>
+        <f t="shared" si="0"/>
+        <v>7127</v>
       </c>
       <c r="M36" s="2">
         <v>4270</v>
       </c>
       <c r="N36" s="2">
-        <v>846</v>
+        <v>1007</v>
       </c>
       <c r="O36" s="2">
-        <v>5116</v>
+        <f t="shared" si="1"/>
+        <v>5277</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q36" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8374</v>
       </c>
       <c r="R36" s="15">
-        <v>184</v>
+        <f t="shared" si="3"/>
+        <v>8374</v>
       </c>
       <c r="S36" s="15">
-        <f t="shared" si="1"/>
-        <v>12319</v>
-      </c>
-      <c r="T36" s="2">
+        <f t="shared" si="4"/>
+        <v>4030</v>
+      </c>
+      <c r="T36" s="15">
+        <f t="shared" si="5"/>
+        <v>12404</v>
+      </c>
+      <c r="U36" s="2">
+        <v>1668</v>
+      </c>
+      <c r="V36" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W36" s="2">
         <v>4635</v>
       </c>
-      <c r="U36" s="28" t="s">
+      <c r="X36" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V36" s="2">
-        <v>1668</v>
-      </c>
-      <c r="W36" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>141</v>
       </c>
@@ -4294,48 +4537,55 @@
         <v>11542</v>
       </c>
       <c r="K37" s="1">
-        <v>3708</v>
+        <v>8071</v>
       </c>
       <c r="L37" s="1">
-        <v>15250</v>
+        <f t="shared" si="0"/>
+        <v>19613</v>
       </c>
       <c r="M37" s="1">
         <v>21620</v>
       </c>
       <c r="N37" s="1">
-        <v>1190</v>
+        <v>1581</v>
       </c>
       <c r="O37" s="1">
-        <v>22810</v>
+        <f t="shared" si="1"/>
+        <v>23201</v>
       </c>
       <c r="P37" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q37" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33162</v>
       </c>
       <c r="R37" s="14">
-        <v>4754</v>
+        <f t="shared" si="3"/>
+        <v>33162</v>
       </c>
       <c r="S37" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>9652</v>
+      </c>
+      <c r="T37" s="14">
+        <f t="shared" si="5"/>
         <v>42814</v>
       </c>
-      <c r="T37" s="1">
+      <c r="U37" s="1">
+        <v>4102</v>
+      </c>
+      <c r="V37" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W37" s="1">
         <v>3038</v>
       </c>
-      <c r="U37" s="27" t="s">
+      <c r="X37" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V37" s="1">
-        <v>4102</v>
-      </c>
-      <c r="W37" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>142</v>
       </c>
@@ -4370,45 +4620,52 @@
         <v>18</v>
       </c>
       <c r="L38" s="2">
+        <f t="shared" si="0"/>
         <v>738</v>
       </c>
       <c r="M38" s="2">
         <v>1118</v>
       </c>
       <c r="N38" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O38" s="2">
-        <v>1138</v>
+        <f t="shared" si="1"/>
+        <v>1143</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q38" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1838</v>
       </c>
       <c r="R38" s="15">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1838</v>
       </c>
       <c r="S38" s="15">
-        <f t="shared" si="1"/>
-        <v>1876</v>
-      </c>
-      <c r="T38" s="2">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="T38" s="15">
+        <f t="shared" si="5"/>
+        <v>1881</v>
+      </c>
+      <c r="U38" s="2">
+        <v>308</v>
+      </c>
+      <c r="V38" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W38" s="2">
         <v>1660</v>
       </c>
-      <c r="U38" s="28" t="s">
+      <c r="X38" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V38" s="2">
-        <v>308</v>
-      </c>
-      <c r="W38" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>143</v>
       </c>
@@ -4440,48 +4697,55 @@
         <v>393</v>
       </c>
       <c r="K39" s="1">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L39" s="1">
-        <v>554</v>
+        <f t="shared" si="0"/>
+        <v>560</v>
       </c>
       <c r="M39" s="1">
         <v>1504</v>
       </c>
       <c r="N39" s="1">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O39" s="1">
-        <v>1588</v>
+        <f t="shared" si="1"/>
+        <v>1601</v>
       </c>
       <c r="P39" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q39" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1897</v>
       </c>
       <c r="R39" s="14">
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>1897</v>
       </c>
       <c r="S39" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="T39" s="14">
+        <f t="shared" si="5"/>
         <v>2161</v>
       </c>
-      <c r="T39" s="1">
+      <c r="U39" s="1">
+        <v>859</v>
+      </c>
+      <c r="V39" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W39" s="1">
         <v>811</v>
       </c>
-      <c r="U39" s="27" t="s">
+      <c r="X39" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V39" s="1">
-        <v>859</v>
-      </c>
-      <c r="W39" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>144</v>
       </c>
@@ -4513,48 +4777,55 @@
         <v>88</v>
       </c>
       <c r="K40" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L40" s="5">
-        <v>92</v>
+        <f t="shared" si="0"/>
+        <v>96</v>
       </c>
       <c r="M40" s="5">
         <v>3961</v>
       </c>
       <c r="N40" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O40" s="5">
-        <v>3962</v>
+        <f t="shared" si="1"/>
+        <v>3964</v>
       </c>
       <c r="P40" s="18" t="s">
         <v>177</v>
       </c>
       <c r="Q40" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4049</v>
       </c>
       <c r="R40" s="18">
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>4049</v>
       </c>
       <c r="S40" s="18">
-        <f t="shared" si="1"/>
-        <v>4058</v>
-      </c>
-      <c r="T40" s="5">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="T40" s="18">
+        <f t="shared" si="5"/>
+        <v>4060</v>
+      </c>
+      <c r="U40" s="5">
+        <v>178</v>
+      </c>
+      <c r="V40" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="W40" s="5">
         <v>874</v>
       </c>
-      <c r="U40" s="30" t="s">
+      <c r="X40" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="V40" s="5">
-        <v>178</v>
-      </c>
-      <c r="W40" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>145</v>
       </c>
@@ -4589,45 +4860,52 @@
         <v>11</v>
       </c>
       <c r="L41" s="5">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="M41" s="5">
         <v>17846</v>
       </c>
       <c r="N41" s="5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O41" s="5">
-        <v>17846</v>
+        <f t="shared" si="1"/>
+        <v>17873</v>
       </c>
       <c r="P41" s="18" t="s">
         <v>177</v>
       </c>
       <c r="Q41" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17896</v>
       </c>
       <c r="R41" s="18">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>17896</v>
       </c>
       <c r="S41" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="T41" s="18">
+        <f t="shared" si="5"/>
         <v>17934</v>
       </c>
-      <c r="T41" s="5">
+      <c r="U41" s="5">
+        <v>505</v>
+      </c>
+      <c r="V41" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="W41" s="5">
         <v>866</v>
       </c>
-      <c r="U41" s="30" t="s">
+      <c r="X41" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="V41" s="5">
-        <v>505</v>
-      </c>
-      <c r="W41" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>146</v>
       </c>
@@ -4662,6 +4940,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="5">
+        <f t="shared" si="0"/>
         <v>364</v>
       </c>
       <c r="M42" s="5">
@@ -4671,36 +4950,42 @@
         <v>0</v>
       </c>
       <c r="O42" s="5">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="P42" s="18" t="s">
         <v>177</v>
       </c>
       <c r="Q42" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>414</v>
       </c>
       <c r="R42" s="18">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>414</v>
       </c>
       <c r="S42" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="18">
+        <f t="shared" si="5"/>
         <v>414</v>
       </c>
-      <c r="T42" s="5">
+      <c r="U42" s="5">
+        <v>77</v>
+      </c>
+      <c r="V42" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="W42" s="5">
         <v>303</v>
       </c>
-      <c r="U42" s="30" t="s">
+      <c r="X42" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="V42" s="5">
-        <v>77</v>
-      </c>
-      <c r="W42" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>147</v>
       </c>
@@ -4735,6 +5020,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="5">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="M43" s="5">
@@ -4744,36 +5030,42 @@
         <v>0</v>
       </c>
       <c r="O43" s="5">
+        <f t="shared" si="1"/>
         <v>1304</v>
       </c>
       <c r="P43" s="18" t="s">
         <v>177</v>
       </c>
       <c r="Q43" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1329</v>
       </c>
       <c r="R43" s="18">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1329</v>
       </c>
       <c r="S43" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="18">
+        <f t="shared" si="5"/>
         <v>1329</v>
       </c>
-      <c r="T43" s="5">
+      <c r="U43" s="5">
+        <v>96</v>
+      </c>
+      <c r="V43" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="W43" s="5">
         <v>250</v>
       </c>
-      <c r="U43" s="30" t="s">
+      <c r="X43" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="V43" s="5">
-        <v>96</v>
-      </c>
-      <c r="W43" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
         <v>148</v>
       </c>
@@ -4808,6 +5100,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M44" s="5">
@@ -4817,36 +5110,42 @@
         <v>0</v>
       </c>
       <c r="O44" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P44" s="18" t="s">
         <v>177</v>
       </c>
       <c r="Q44" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R44" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S44" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="5">
-        <v>0</v>
-      </c>
-      <c r="U44" s="30" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="5">
+        <v>0</v>
+      </c>
+      <c r="V44" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="V44" s="5">
-        <v>0</v>
-      </c>
-      <c r="W44" s="30" t="s">
+      <c r="W44" s="5">
+        <v>0</v>
+      </c>
+      <c r="X44" s="30" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>149</v>
       </c>
@@ -4878,48 +5177,55 @@
         <v>1367</v>
       </c>
       <c r="K45" s="1">
-        <v>962</v>
+        <v>2389</v>
       </c>
       <c r="L45" s="1">
-        <v>2329</v>
+        <f t="shared" si="0"/>
+        <v>3756</v>
       </c>
       <c r="M45" s="1">
         <v>1267</v>
       </c>
       <c r="N45" s="1">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="O45" s="1">
-        <v>1420</v>
+        <f t="shared" si="1"/>
+        <v>1426</v>
       </c>
       <c r="P45" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q45" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2634</v>
       </c>
       <c r="R45" s="14">
-        <v>1433</v>
+        <f t="shared" si="3"/>
+        <v>2634</v>
       </c>
       <c r="S45" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>2548</v>
+      </c>
+      <c r="T45" s="14">
+        <f t="shared" si="5"/>
         <v>5182</v>
       </c>
-      <c r="T45" s="1">
+      <c r="U45" s="1">
+        <v>645</v>
+      </c>
+      <c r="V45" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W45" s="1">
         <v>1683</v>
       </c>
-      <c r="U45" s="27" t="s">
+      <c r="X45" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V45" s="1">
-        <v>645</v>
-      </c>
-      <c r="W45" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
         <v>150</v>
       </c>
@@ -4951,48 +5257,55 @@
         <v>5806</v>
       </c>
       <c r="K46" s="2">
-        <v>3396</v>
+        <v>3704</v>
       </c>
       <c r="L46" s="2">
-        <v>9202</v>
+        <f t="shared" si="0"/>
+        <v>9510</v>
       </c>
       <c r="M46" s="2">
         <v>9840</v>
       </c>
       <c r="N46" s="2">
-        <v>2377</v>
+        <v>2518</v>
       </c>
       <c r="O46" s="2">
-        <v>12217</v>
+        <f t="shared" si="1"/>
+        <v>12358</v>
       </c>
       <c r="P46" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q46" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15646</v>
       </c>
       <c r="R46" s="15">
-        <v>66</v>
+        <f t="shared" si="3"/>
+        <v>15646</v>
       </c>
       <c r="S46" s="15">
-        <f t="shared" si="1"/>
-        <v>21485</v>
-      </c>
-      <c r="T46" s="2">
+        <f t="shared" si="4"/>
+        <v>6222</v>
+      </c>
+      <c r="T46" s="15">
+        <f t="shared" si="5"/>
+        <v>21868</v>
+      </c>
+      <c r="U46" s="2">
+        <v>4178</v>
+      </c>
+      <c r="V46" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W46" s="2">
         <v>5312</v>
       </c>
-      <c r="U46" s="28" t="s">
+      <c r="X46" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V46" s="2">
-        <v>4178</v>
-      </c>
-      <c r="W46" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>151</v>
       </c>
@@ -5024,48 +5337,55 @@
         <v>9606</v>
       </c>
       <c r="K47" s="1">
-        <v>2339</v>
+        <v>3035</v>
       </c>
       <c r="L47" s="1">
-        <v>11945</v>
+        <f t="shared" si="0"/>
+        <v>12641</v>
       </c>
       <c r="M47" s="1">
         <v>36478</v>
       </c>
       <c r="N47" s="1">
-        <v>2265</v>
+        <v>2554</v>
       </c>
       <c r="O47" s="1">
-        <v>38743</v>
+        <f t="shared" si="1"/>
+        <v>39032</v>
       </c>
       <c r="P47" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q47" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46084</v>
       </c>
       <c r="R47" s="14">
-        <v>792</v>
+        <f t="shared" si="3"/>
+        <v>46084</v>
       </c>
       <c r="S47" s="14">
-        <f t="shared" si="1"/>
-        <v>51480</v>
-      </c>
-      <c r="T47" s="1">
+        <f t="shared" si="4"/>
+        <v>5589</v>
+      </c>
+      <c r="T47" s="14">
+        <f t="shared" si="5"/>
+        <v>51673</v>
+      </c>
+      <c r="U47" s="1">
+        <v>7745</v>
+      </c>
+      <c r="V47" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W47" s="1">
         <v>5320</v>
       </c>
-      <c r="U47" s="27" t="s">
+      <c r="X47" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V47" s="1">
-        <v>7745</v>
-      </c>
-      <c r="W47" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>152</v>
       </c>
@@ -5097,10 +5417,11 @@
         <v>6899</v>
       </c>
       <c r="K48" s="2">
-        <v>2096</v>
+        <v>2238</v>
       </c>
       <c r="L48" s="2">
-        <v>8995</v>
+        <f t="shared" si="0"/>
+        <v>9137</v>
       </c>
       <c r="M48" s="2">
         <v>13612</v>
@@ -5109,36 +5430,42 @@
         <v>1165</v>
       </c>
       <c r="O48" s="2">
+        <f t="shared" si="1"/>
         <v>14777</v>
       </c>
       <c r="P48" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q48" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20511</v>
       </c>
       <c r="R48" s="15">
-        <v>142</v>
+        <f t="shared" si="3"/>
+        <v>20511</v>
       </c>
       <c r="S48" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>3403</v>
+      </c>
+      <c r="T48" s="15">
+        <f t="shared" si="5"/>
         <v>23914</v>
       </c>
-      <c r="T48" s="2">
+      <c r="U48" s="2">
+        <v>2165</v>
+      </c>
+      <c r="V48" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W48" s="2">
         <v>5318</v>
       </c>
-      <c r="U48" s="28" t="s">
+      <c r="X48" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V48" s="2">
-        <v>2165</v>
-      </c>
-      <c r="W48" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>153</v>
       </c>
@@ -5170,48 +5497,55 @@
         <v>4432</v>
       </c>
       <c r="K49" s="1">
-        <v>1638</v>
+        <v>2013</v>
       </c>
       <c r="L49" s="1">
-        <v>6070</v>
+        <f t="shared" si="0"/>
+        <v>6445</v>
       </c>
       <c r="M49" s="1">
         <v>11489</v>
       </c>
       <c r="N49" s="1">
-        <v>1206</v>
+        <v>1663</v>
       </c>
       <c r="O49" s="1">
-        <v>12695</v>
+        <f t="shared" si="1"/>
+        <v>13152</v>
       </c>
       <c r="P49" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q49" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15921</v>
       </c>
       <c r="R49" s="14">
-        <v>562</v>
+        <f t="shared" si="3"/>
+        <v>15921</v>
       </c>
       <c r="S49" s="14">
-        <f t="shared" si="1"/>
-        <v>19327</v>
-      </c>
-      <c r="T49" s="1">
+        <f t="shared" si="4"/>
+        <v>3676</v>
+      </c>
+      <c r="T49" s="14">
+        <f t="shared" si="5"/>
+        <v>19597</v>
+      </c>
+      <c r="U49" s="1">
+        <v>4318</v>
+      </c>
+      <c r="V49" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W49" s="1">
         <v>2384</v>
       </c>
-      <c r="U49" s="27" t="s">
+      <c r="X49" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V49" s="1">
-        <v>4318</v>
-      </c>
-      <c r="W49" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
         <v>154</v>
       </c>
@@ -5243,48 +5577,55 @@
         <v>17740</v>
       </c>
       <c r="K50" s="2">
-        <v>4210</v>
+        <v>6490</v>
       </c>
       <c r="L50" s="2">
-        <v>21950</v>
+        <f t="shared" si="0"/>
+        <v>24230</v>
       </c>
       <c r="M50" s="2">
         <v>23074</v>
       </c>
       <c r="N50" s="2">
-        <v>1684</v>
+        <v>3920</v>
       </c>
       <c r="O50" s="2">
-        <v>24758</v>
+        <f t="shared" si="1"/>
+        <v>26994</v>
       </c>
       <c r="P50" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q50" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40814</v>
       </c>
       <c r="R50" s="15">
-        <v>3481</v>
+        <f t="shared" si="3"/>
+        <v>40814</v>
       </c>
       <c r="S50" s="15">
-        <f t="shared" si="1"/>
-        <v>50189</v>
-      </c>
-      <c r="T50" s="2">
+        <f t="shared" si="4"/>
+        <v>10410</v>
+      </c>
+      <c r="T50" s="15">
+        <f t="shared" si="5"/>
+        <v>51224</v>
+      </c>
+      <c r="U50" s="2">
+        <v>7995</v>
+      </c>
+      <c r="V50" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W50" s="2">
         <v>4867</v>
       </c>
-      <c r="U50" s="28" t="s">
+      <c r="X50" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V50" s="2">
-        <v>7995</v>
-      </c>
-      <c r="W50" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>155</v>
       </c>
@@ -5316,48 +5657,55 @@
         <v>3009</v>
       </c>
       <c r="K51" s="1">
-        <v>868</v>
+        <v>921</v>
       </c>
       <c r="L51" s="1">
-        <v>3877</v>
+        <f t="shared" si="0"/>
+        <v>3930</v>
       </c>
       <c r="M51" s="1">
         <v>3695</v>
       </c>
       <c r="N51" s="1">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="O51" s="1">
-        <v>4226</v>
+        <f t="shared" si="1"/>
+        <v>4231</v>
       </c>
       <c r="P51" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q51" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6704</v>
       </c>
       <c r="R51" s="14">
-        <v>58</v>
+        <f t="shared" si="3"/>
+        <v>6704</v>
       </c>
       <c r="S51" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>1457</v>
+      </c>
+      <c r="T51" s="14">
+        <f t="shared" si="5"/>
         <v>8161</v>
       </c>
-      <c r="T51" s="1">
+      <c r="U51" s="1">
+        <v>1974</v>
+      </c>
+      <c r="V51" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W51" s="1">
         <v>1564</v>
       </c>
-      <c r="U51" s="27" t="s">
+      <c r="X51" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V51" s="1">
-        <v>1974</v>
-      </c>
-      <c r="W51" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>156</v>
       </c>
@@ -5389,48 +5737,55 @@
         <v>5292</v>
       </c>
       <c r="K52" s="2">
-        <v>1288</v>
+        <v>1446</v>
       </c>
       <c r="L52" s="2">
-        <v>6580</v>
+        <f t="shared" si="0"/>
+        <v>6738</v>
       </c>
       <c r="M52" s="2">
         <v>8755</v>
       </c>
       <c r="N52" s="2">
-        <v>1346</v>
+        <v>1396</v>
       </c>
       <c r="O52" s="2">
-        <v>10101</v>
+        <f t="shared" si="1"/>
+        <v>10151</v>
       </c>
       <c r="P52" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q52" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14047</v>
       </c>
       <c r="R52" s="15">
-        <v>205</v>
+        <f t="shared" si="3"/>
+        <v>14047</v>
       </c>
       <c r="S52" s="15">
-        <f t="shared" si="1"/>
-        <v>16886</v>
-      </c>
-      <c r="T52" s="2">
+        <f t="shared" si="4"/>
+        <v>2842</v>
+      </c>
+      <c r="T52" s="15">
+        <f t="shared" si="5"/>
+        <v>16889</v>
+      </c>
+      <c r="U52" s="2">
+        <v>2833</v>
+      </c>
+      <c r="V52" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W52" s="2">
         <v>3361</v>
       </c>
-      <c r="U52" s="28" t="s">
+      <c r="X52" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V52" s="2">
-        <v>2833</v>
-      </c>
-      <c r="W52" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>157</v>
       </c>
@@ -5462,48 +5817,55 @@
         <v>974</v>
       </c>
       <c r="K53" s="1">
-        <v>952</v>
+        <v>974</v>
       </c>
       <c r="L53" s="1">
-        <v>1926</v>
+        <f t="shared" si="0"/>
+        <v>1948</v>
       </c>
       <c r="M53" s="1">
         <v>1383</v>
       </c>
       <c r="N53" s="1">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="O53" s="1">
-        <v>1578</v>
+        <f t="shared" si="1"/>
+        <v>1589</v>
       </c>
       <c r="P53" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q53" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2357</v>
       </c>
       <c r="R53" s="14">
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>2357</v>
       </c>
       <c r="S53" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>1180</v>
+      </c>
+      <c r="T53" s="14">
+        <f t="shared" si="5"/>
         <v>3537</v>
       </c>
-      <c r="T53" s="1">
+      <c r="U53" s="1">
+        <v>1440</v>
+      </c>
+      <c r="V53" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W53" s="1">
         <v>2075</v>
       </c>
-      <c r="U53" s="27" t="s">
+      <c r="X53" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V53" s="1">
-        <v>1440</v>
-      </c>
-      <c r="W53" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
         <v>158</v>
       </c>
@@ -5535,48 +5897,55 @@
         <v>1120</v>
       </c>
       <c r="K54" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="L54" s="2">
-        <v>1539</v>
+        <f t="shared" si="0"/>
+        <v>1553</v>
       </c>
       <c r="M54" s="2">
         <v>1581</v>
       </c>
       <c r="N54" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O54" s="2">
-        <v>1787</v>
+        <f t="shared" si="1"/>
+        <v>1789</v>
       </c>
       <c r="P54" s="15" t="s">
         <v>177</v>
       </c>
       <c r="Q54" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2701</v>
       </c>
       <c r="R54" s="15">
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>2701</v>
       </c>
       <c r="S54" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>641</v>
+      </c>
+      <c r="T54" s="15">
+        <f t="shared" si="5"/>
         <v>3342</v>
       </c>
-      <c r="T54" s="2">
+      <c r="U54" s="2">
+        <v>245</v>
+      </c>
+      <c r="V54" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W54" s="2">
         <v>2146</v>
       </c>
-      <c r="U54" s="28" t="s">
+      <c r="X54" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="V54" s="2">
-        <v>245</v>
-      </c>
-      <c r="W54" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>159</v>
       </c>
@@ -5608,48 +5977,55 @@
         <v>2347</v>
       </c>
       <c r="K55" s="1">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L55" s="1">
-        <v>2609</v>
+        <f t="shared" si="0"/>
+        <v>2612</v>
       </c>
       <c r="M55" s="1">
         <v>5273</v>
       </c>
       <c r="N55" s="1">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="O55" s="1">
-        <v>5841</v>
+        <f t="shared" si="1"/>
+        <v>5849</v>
       </c>
       <c r="P55" s="14" t="s">
         <v>177</v>
       </c>
       <c r="Q55" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7620</v>
       </c>
       <c r="R55" s="14">
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>7620</v>
       </c>
       <c r="S55" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>841</v>
+      </c>
+      <c r="T55" s="14">
+        <f t="shared" si="5"/>
         <v>8461</v>
       </c>
-      <c r="T55" s="1">
+      <c r="U55" s="1">
+        <v>3383</v>
+      </c>
+      <c r="V55" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W55" s="1">
         <v>1714</v>
       </c>
-      <c r="U55" s="27" t="s">
+      <c r="X55" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="V55" s="1">
-        <v>3383</v>
-      </c>
-      <c r="W55" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>160</v>
       </c>
@@ -5658,88 +6034,92 @@
         <v>2520</v>
       </c>
       <c r="C56" s="20">
-        <f t="shared" ref="C56:V56" si="2">SUM(C12:C15)</f>
+        <f t="shared" ref="C56:W56" si="6">SUM(C12:C15)</f>
         <v>18905</v>
       </c>
       <c r="D56" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2507</v>
       </c>
       <c r="E56" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1890</v>
       </c>
       <c r="F56" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>558</v>
       </c>
       <c r="G56" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5288</v>
       </c>
       <c r="H56" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>773</v>
       </c>
       <c r="I56" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>409</v>
       </c>
       <c r="J56" s="20">
-        <f t="shared" ref="J56:K56" si="3">SUM(J12:J15)</f>
+        <f t="shared" ref="J56:K56" si="7">SUM(J12:J15)</f>
         <v>6564</v>
       </c>
       <c r="K56" s="20">
-        <f t="shared" si="3"/>
-        <v>2552</v>
+        <f t="shared" si="7"/>
+        <v>3363</v>
       </c>
       <c r="L56" s="20">
-        <f t="shared" si="2"/>
-        <v>9116</v>
+        <f t="shared" si="6"/>
+        <v>9927</v>
       </c>
       <c r="M56" s="20">
-        <f t="shared" ref="M56:N56" si="4">SUM(M12:M15)</f>
+        <f t="shared" ref="M56:N56" si="8">SUM(M12:M15)</f>
         <v>6837</v>
       </c>
       <c r="N56" s="20">
-        <f t="shared" si="4"/>
-        <v>1136</v>
+        <f t="shared" si="8"/>
+        <v>1321</v>
       </c>
       <c r="O56" s="20">
-        <f t="shared" si="2"/>
-        <v>7973</v>
+        <f t="shared" si="6"/>
+        <v>8158</v>
       </c>
       <c r="P56" s="20" t="s">
         <v>177</v>
       </c>
       <c r="Q56" s="20">
-        <f t="shared" ref="Q56" si="5">SUM(Q12:Q15)</f>
+        <f t="shared" ref="Q56:R56" si="9">SUM(Q12:Q15)</f>
         <v>13401</v>
       </c>
       <c r="R56" s="20">
-        <f t="shared" si="2"/>
-        <v>624</v>
+        <f t="shared" si="9"/>
+        <v>13401</v>
       </c>
       <c r="S56" s="20">
-        <f t="shared" ref="S56" si="6">SUM(S12:S15)</f>
-        <v>17713</v>
+        <f t="shared" si="6"/>
+        <v>4684</v>
       </c>
       <c r="T56" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T56" si="10">SUM(T12:T15)</f>
+        <v>18085</v>
+      </c>
+      <c r="U56" s="20">
+        <f t="shared" si="6"/>
+        <v>4085</v>
+      </c>
+      <c r="V56" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="W56" s="20">
+        <f t="shared" si="6"/>
         <v>7209</v>
       </c>
-      <c r="U56" s="31" t="s">
+      <c r="X56" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="V56" s="20">
-        <f t="shared" si="2"/>
-        <v>4085</v>
-      </c>
-      <c r="W56" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>161</v>
       </c>
@@ -5748,88 +6128,92 @@
         <v>1607</v>
       </c>
       <c r="C57" s="22">
-        <f t="shared" ref="C57:V57" si="7">SUM(C40:C44)</f>
+        <f t="shared" ref="C57:W57" si="11">SUM(C40:C44)</f>
         <v>50830</v>
       </c>
       <c r="D57" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1167</v>
       </c>
       <c r="E57" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>14900</v>
       </c>
       <c r="F57" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="G57" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="H57" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>551</v>
       </c>
       <c r="I57" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J57" s="22">
-        <f t="shared" ref="J57:K57" si="8">SUM(J40:J44)</f>
+        <f t="shared" ref="J57:K57" si="12">SUM(J40:J44)</f>
         <v>527</v>
       </c>
       <c r="K57" s="22">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="L57" s="22">
-        <f t="shared" si="7"/>
-        <v>542</v>
+        <f t="shared" si="11"/>
+        <v>546</v>
       </c>
       <c r="M57" s="22">
-        <f t="shared" ref="M57:N57" si="9">SUM(M40:M44)</f>
+        <f t="shared" ref="M57:N57" si="13">SUM(M40:M44)</f>
         <v>23161</v>
       </c>
       <c r="N57" s="22">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>30</v>
       </c>
       <c r="O57" s="22">
-        <f t="shared" si="7"/>
-        <v>23162</v>
+        <f t="shared" si="11"/>
+        <v>23191</v>
       </c>
       <c r="P57" s="22" t="s">
         <v>177</v>
       </c>
       <c r="Q57" s="22">
-        <f t="shared" ref="Q57" si="10">SUM(Q40:Q44)</f>
+        <f t="shared" ref="Q57:R57" si="14">SUM(Q40:Q44)</f>
         <v>23688</v>
       </c>
       <c r="R57" s="22">
-        <f t="shared" si="7"/>
-        <v>31</v>
+        <f t="shared" si="14"/>
+        <v>23688</v>
       </c>
       <c r="S57" s="22">
-        <f t="shared" ref="S57" si="11">SUM(S40:S44)</f>
-        <v>23735</v>
+        <f t="shared" si="11"/>
+        <v>49</v>
       </c>
       <c r="T57" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="T57" si="15">SUM(T40:T44)</f>
+        <v>23737</v>
+      </c>
+      <c r="U57" s="22">
+        <f t="shared" si="11"/>
+        <v>856</v>
+      </c>
+      <c r="V57" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="W57" s="22">
+        <f t="shared" si="11"/>
         <v>2293</v>
       </c>
-      <c r="U57" s="32" t="s">
+      <c r="X57" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="V57" s="22">
-        <f t="shared" si="7"/>
-        <v>856</v>
-      </c>
-      <c r="W57" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
         <v>162</v>
       </c>
@@ -5838,96 +6222,101 @@
         <v>121111</v>
       </c>
       <c r="C58" s="21">
-        <f t="shared" ref="C58:V58" si="12">SUM(C2:C55)</f>
+        <f t="shared" ref="C58:W58" si="16">SUM(C2:C55)</f>
         <v>822492</v>
       </c>
       <c r="D58" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>56872</v>
       </c>
       <c r="E58" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>72899</v>
       </c>
       <c r="F58" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>31797</v>
       </c>
       <c r="G58" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>113205</v>
       </c>
       <c r="H58" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>26327</v>
       </c>
       <c r="I58" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2394</v>
       </c>
       <c r="J58" s="21">
-        <f t="shared" ref="J58:K58" si="13">SUM(J2:J55)</f>
-        <v>318643</v>
+        <f t="shared" ref="J58:K58" si="17">SUM(J2:J55)</f>
+        <v>318646</v>
       </c>
       <c r="K58" s="21">
-        <f t="shared" si="13"/>
-        <v>115837</v>
+        <f t="shared" si="17"/>
+        <v>140875</v>
       </c>
       <c r="L58" s="21">
-        <f t="shared" si="12"/>
-        <v>434480</v>
+        <f t="shared" si="16"/>
+        <v>459521</v>
       </c>
       <c r="M58" s="21">
-        <f t="shared" ref="M58:N58" si="14">SUM(M2:M55)</f>
+        <f t="shared" ref="M58:N58" si="18">SUM(M2:M55)</f>
         <v>547927</v>
       </c>
       <c r="N58" s="21">
-        <f t="shared" si="14"/>
-        <v>49596</v>
+        <f t="shared" si="18"/>
+        <v>58507</v>
       </c>
       <c r="O58" s="21">
-        <f t="shared" si="12"/>
-        <v>597523</v>
+        <f t="shared" si="16"/>
+        <v>606434</v>
       </c>
       <c r="P58" s="21" t="s">
         <v>177</v>
       </c>
       <c r="Q58" s="21">
-        <f t="shared" ref="Q58" si="15">SUM(Q2:Q55)</f>
-        <v>866570</v>
+        <f t="shared" ref="Q58:R58" si="19">SUM(Q2:Q55)</f>
+        <v>866573</v>
       </c>
       <c r="R58" s="21">
-        <f t="shared" si="12"/>
-        <v>28884</v>
+        <f t="shared" si="19"/>
+        <v>866573</v>
       </c>
       <c r="S58" s="21">
-        <f t="shared" ref="S58" si="16">SUM(S2:S55)</f>
-        <v>1060887</v>
+        <f t="shared" si="16"/>
+        <v>199382</v>
       </c>
       <c r="T58" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="T58" si="20">SUM(T2:T55)</f>
+        <v>1065955</v>
+      </c>
+      <c r="U58" s="21">
+        <f t="shared" si="16"/>
+        <v>151631</v>
+      </c>
+      <c r="V58" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="W58" s="21">
+        <f t="shared" si="16"/>
         <v>162690</v>
       </c>
-      <c r="U58" s="33" t="s">
+      <c r="X58" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="V58" s="21">
-        <f t="shared" si="12"/>
-        <v>151631</v>
-      </c>
-      <c r="W58" s="33" t="s">
-        <v>180</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V58" xr:uid="{D90AFE98-8C78-4B1F-BEC8-FD4085F25E61}"/>
+  <autoFilter ref="A1:W58" xr:uid="{D90AFE98-8C78-4B1F-BEC8-FD4085F25E61}"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Based on circulation by item type spreadsheet for the year as run on January 1" sqref="L1:S1" xr:uid="{78EE896E-66B5-4B14-8B20-F75A2CA9B99C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Based on circulation by item type spreadsheet for the year as run on January 1" sqref="L1:T1" xr:uid="{78EE896E-66B5-4B14-8B20-F75A2CA9B99C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Data from Item count by item type spreadsheet" sqref="C1" xr:uid="{C179746B-390C-44A4-AF6E-4A64D14353AD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Based on the monthly circulation spreadsheet for the year as run on January 1" sqref="B1 T1:W1" xr:uid="{CD8BD2C4-A9FC-4A10-B4F4-EB4AEA221333}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Based on the monthly circulation spreadsheet for the year as run on January 1" sqref="B1 U1:X1" xr:uid="{CD8BD2C4-A9FC-4A10-B4F4-EB4AEA221333}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Data from Item count by item type spreadsheet for the year as run on January 1" sqref="D1:K1" xr:uid="{ADA05F97-168E-4E74-986A-EF2BBF782F8B}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5939,16 +6328,16 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="7" customWidth="1"/>
-    <col min="2" max="14" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" style="7" customWidth="1"/>
+    <col min="2" max="14" width="16.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5995,7 +6384,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>106</v>
       </c>
@@ -6043,7 +6432,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>107</v>
       </c>
@@ -6091,7 +6480,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>108</v>
       </c>
@@ -6139,7 +6528,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>109</v>
       </c>
@@ -6187,7 +6576,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
@@ -6235,7 +6624,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>111</v>
       </c>
@@ -6283,7 +6672,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>112</v>
       </c>
@@ -6331,7 +6720,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>113</v>
       </c>
@@ -6379,7 +6768,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>114</v>
       </c>
@@ -6427,7 +6816,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>115</v>
       </c>
@@ -6475,7 +6864,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>116</v>
       </c>
@@ -6523,7 +6912,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>117</v>
       </c>
@@ -6571,7 +6960,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>118</v>
       </c>
@@ -6619,7 +7008,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>119</v>
       </c>
@@ -6667,7 +7056,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>120</v>
       </c>
@@ -6715,7 +7104,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>121</v>
       </c>
@@ -6763,7 +7152,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>122</v>
       </c>
@@ -6811,7 +7200,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>123</v>
       </c>
@@ -6859,7 +7248,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>124</v>
       </c>
@@ -6907,7 +7296,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>125</v>
       </c>
@@ -6955,7 +7344,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>126</v>
       </c>
@@ -7003,7 +7392,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>127</v>
       </c>
@@ -7051,7 +7440,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>128</v>
       </c>
@@ -7099,7 +7488,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>129</v>
       </c>
@@ -7147,7 +7536,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>130</v>
       </c>
@@ -7195,7 +7584,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>131</v>
       </c>
@@ -7243,7 +7632,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
@@ -7291,7 +7680,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>133</v>
       </c>
@@ -7339,7 +7728,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>134</v>
       </c>
@@ -7387,7 +7776,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>135</v>
       </c>
@@ -7435,7 +7824,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>136</v>
       </c>
@@ -7483,7 +7872,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>137</v>
       </c>
@@ -7531,7 +7920,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>138</v>
       </c>
@@ -7579,7 +7968,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>139</v>
       </c>
@@ -7627,7 +8016,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>140</v>
       </c>
@@ -7675,7 +8064,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>141</v>
       </c>
@@ -7723,7 +8112,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>142</v>
       </c>
@@ -7771,7 +8160,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>143</v>
       </c>
@@ -7819,7 +8208,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>144</v>
       </c>
@@ -7867,7 +8256,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>145</v>
       </c>
@@ -7915,7 +8304,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>146</v>
       </c>
@@ -7963,7 +8352,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>147</v>
       </c>
@@ -8011,7 +8400,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>148</v>
       </c>
@@ -8059,7 +8448,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>149</v>
       </c>
@@ -8107,7 +8496,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>150</v>
       </c>
@@ -8155,7 +8544,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>151</v>
       </c>
@@ -8203,7 +8592,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>152</v>
       </c>
@@ -8251,7 +8640,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>153</v>
       </c>
@@ -8299,7 +8688,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>154</v>
       </c>
@@ -8347,7 +8736,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>155</v>
       </c>
@@ -8395,7 +8784,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
         <v>156</v>
       </c>
@@ -8443,7 +8832,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>157</v>
       </c>
@@ -8491,7 +8880,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
         <v>158</v>
       </c>
@@ -8539,7 +8928,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>159</v>
       </c>
@@ -8587,7 +8976,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>160</v>
       </c>
@@ -8648,7 +9037,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>161</v>
       </c>
@@ -8709,7 +9098,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
         <v>162</v>
       </c>
@@ -8792,13 +9181,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="7" customWidth="1"/>
-    <col min="2" max="13" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" style="7" customWidth="1"/>
+    <col min="2" max="13" width="16.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -8842,7 +9231,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>106</v>
       </c>
@@ -8886,7 +9275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>107</v>
       </c>
@@ -8930,7 +9319,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>108</v>
       </c>
@@ -8974,7 +9363,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>109</v>
       </c>
@@ -9018,7 +9407,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
@@ -9062,7 +9451,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>111</v>
       </c>
@@ -9106,7 +9495,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>112</v>
       </c>
@@ -9150,7 +9539,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>113</v>
       </c>
@@ -9194,7 +9583,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>114</v>
       </c>
@@ -9238,7 +9627,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>115</v>
       </c>
@@ -9282,7 +9671,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>116</v>
       </c>
@@ -9326,7 +9715,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>117</v>
       </c>
@@ -9370,7 +9759,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>118</v>
       </c>
@@ -9414,7 +9803,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>119</v>
       </c>
@@ -9458,7 +9847,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>120</v>
       </c>
@@ -9502,7 +9891,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>121</v>
       </c>
@@ -9546,7 +9935,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>122</v>
       </c>
@@ -9590,7 +9979,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>123</v>
       </c>
@@ -9634,7 +10023,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>124</v>
       </c>
@@ -9678,7 +10067,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>125</v>
       </c>
@@ -9722,7 +10111,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>126</v>
       </c>
@@ -9766,7 +10155,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>127</v>
       </c>
@@ -9810,7 +10199,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>128</v>
       </c>
@@ -9854,7 +10243,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>129</v>
       </c>
@@ -9898,7 +10287,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>130</v>
       </c>
@@ -9942,7 +10331,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>131</v>
       </c>
@@ -9986,7 +10375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
@@ -10030,7 +10419,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>133</v>
       </c>
@@ -10074,7 +10463,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>134</v>
       </c>
@@ -10118,7 +10507,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>135</v>
       </c>
@@ -10162,7 +10551,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>136</v>
       </c>
@@ -10206,7 +10595,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>137</v>
       </c>
@@ -10250,7 +10639,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>138</v>
       </c>
@@ -10294,7 +10683,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>139</v>
       </c>
@@ -10338,7 +10727,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>140</v>
       </c>
@@ -10382,7 +10771,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>141</v>
       </c>
@@ -10426,7 +10815,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>142</v>
       </c>
@@ -10470,7 +10859,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>143</v>
       </c>
@@ -10514,7 +10903,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>144</v>
       </c>
@@ -10558,7 +10947,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>145</v>
       </c>
@@ -10602,7 +10991,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>146</v>
       </c>
@@ -10646,7 +11035,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>147</v>
       </c>
@@ -10690,7 +11079,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>148</v>
       </c>
@@ -10734,7 +11123,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>149</v>
       </c>
@@ -10778,7 +11167,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>150</v>
       </c>
@@ -10822,7 +11211,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>151</v>
       </c>
@@ -10866,7 +11255,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>152</v>
       </c>
@@ -10910,7 +11299,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>153</v>
       </c>
@@ -10954,7 +11343,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>154</v>
       </c>
@@ -10998,7 +11387,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>155</v>
       </c>
@@ -11042,7 +11431,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
         <v>156</v>
       </c>
@@ -11086,7 +11475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>157</v>
       </c>
@@ -11130,7 +11519,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
         <v>158</v>
       </c>
@@ -11174,7 +11563,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>159</v>
       </c>
@@ -11218,7 +11607,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>160</v>
       </c>
@@ -11274,7 +11663,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>161</v>
       </c>
@@ -11330,7 +11719,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
         <v>162</v>
       </c>
@@ -11406,12 +11795,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="13" width="16.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -11455,7 +11844,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -11499,7 +11888,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -11543,7 +11932,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -11587,7 +11976,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -11631,7 +12020,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -11675,7 +12064,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -11719,7 +12108,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -11763,7 +12152,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -11807,7 +12196,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -11851,7 +12240,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -11895,7 +12284,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -11939,7 +12328,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -11983,7 +12372,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -12027,7 +12416,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -12071,7 +12460,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -12121,7 +12510,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
@@ -12165,7 +12554,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -12209,7 +12598,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
@@ -12253,7 +12642,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -12297,7 +12686,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>79</v>
       </c>
@@ -12341,7 +12730,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -12385,7 +12774,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>20</v>
       </c>
@@ -12429,7 +12818,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -12473,7 +12862,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>22</v>
       </c>
@@ -12517,7 +12906,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -12561,7 +12950,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>24</v>
       </c>
@@ -12605,7 +12994,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -12649,7 +13038,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>26</v>
       </c>
@@ -12693,7 +13082,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -12737,7 +13126,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>28</v>
       </c>
@@ -12781,7 +13170,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -12825,7 +13214,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>30</v>
       </c>
@@ -12869,7 +13258,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -12913,7 +13302,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>32</v>
       </c>
@@ -12957,7 +13346,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -13001,7 +13390,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>34</v>
       </c>
@@ -13045,7 +13434,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -13089,7 +13478,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>36</v>
       </c>
@@ -13133,7 +13522,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -13177,7 +13566,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -13221,7 +13610,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -13265,7 +13654,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -13309,7 +13698,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -13353,7 +13742,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -13403,7 +13792,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>42</v>
       </c>
@@ -13447,7 +13836,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -13491,7 +13880,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>44</v>
       </c>
@@ -13535,7 +13924,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -13579,7 +13968,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>46</v>
       </c>
@@ -13623,7 +14012,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -13667,7 +14056,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>48</v>
       </c>
@@ -13711,7 +14100,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -13755,7 +14144,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>50</v>
       </c>
@@ -13799,7 +14188,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -13843,7 +14232,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>52</v>
       </c>
@@ -13887,7 +14276,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -13956,12 +14345,12 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="14" width="16.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -14008,7 +14397,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -14055,7 +14444,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -14102,7 +14491,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -14149,7 +14538,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -14196,7 +14585,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -14243,7 +14632,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -14290,7 +14679,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -14337,7 +14726,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -14384,7 +14773,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -14431,7 +14820,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -14478,7 +14867,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -14525,7 +14914,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -14572,7 +14961,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -14619,7 +15008,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -14666,7 +15055,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -14713,7 +15102,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
@@ -14760,7 +15149,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -14807,7 +15196,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
@@ -14854,7 +15243,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -14901,7 +15290,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>79</v>
       </c>
@@ -14948,7 +15337,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -14995,7 +15384,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>20</v>
       </c>
@@ -15042,7 +15431,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -15089,7 +15478,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>22</v>
       </c>
@@ -15136,7 +15525,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -15183,7 +15572,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>24</v>
       </c>
@@ -15230,7 +15619,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -15277,7 +15666,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>26</v>
       </c>
@@ -15324,7 +15713,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -15371,7 +15760,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>28</v>
       </c>
@@ -15418,7 +15807,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -15465,7 +15854,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>30</v>
       </c>
@@ -15512,7 +15901,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -15559,7 +15948,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>32</v>
       </c>
@@ -15606,7 +15995,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -15653,7 +16042,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>34</v>
       </c>
@@ -15700,7 +16089,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -15747,7 +16136,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>36</v>
       </c>
@@ -15794,7 +16183,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -15841,7 +16230,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -15888,7 +16277,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -15935,7 +16324,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -15982,7 +16371,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -16029,7 +16418,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -16076,7 +16465,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>42</v>
       </c>
@@ -16123,7 +16512,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -16170,7 +16559,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>44</v>
       </c>
@@ -16217,7 +16606,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -16264,7 +16653,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>46</v>
       </c>
@@ -16311,7 +16700,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -16358,7 +16747,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>48</v>
       </c>
@@ -16405,7 +16794,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -16452,7 +16841,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>50</v>
       </c>
@@ -16499,7 +16888,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -16546,7 +16935,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>52</v>
       </c>
@@ -16593,7 +16982,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -16658,16 +17047,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="16.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="16.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="7" width="16.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="16.6640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="16.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -16710,7 +17099,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -16753,7 +17142,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -16796,7 +17185,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -16839,7 +17228,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -16882,7 +17271,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -16925,7 +17314,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -16968,7 +17357,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -17011,7 +17400,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -17054,7 +17443,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -17097,7 +17486,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -17140,7 +17529,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -17183,7 +17572,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -17226,7 +17615,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -17269,7 +17658,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -17312,7 +17701,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -17355,7 +17744,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -17398,7 +17787,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -17441,7 +17830,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
@@ -17484,7 +17873,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -17527,7 +17916,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>79</v>
       </c>
@@ -17570,7 +17959,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -17613,7 +18002,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
@@ -17656,7 +18045,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -17699,7 +18088,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
@@ -17742,7 +18131,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -17785,7 +18174,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
@@ -17828,7 +18217,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -17871,7 +18260,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
@@ -17914,7 +18303,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -17957,7 +18346,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
@@ -18000,7 +18389,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -18043,7 +18432,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -18086,7 +18475,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -18129,7 +18518,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -18172,7 +18561,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -18215,7 +18604,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -18258,7 +18647,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -18301,7 +18690,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>36</v>
       </c>
@@ -18344,7 +18733,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -18387,7 +18776,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -18430,7 +18819,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -18473,7 +18862,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -18516,7 +18905,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -18559,7 +18948,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -18602,7 +18991,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>42</v>
       </c>
@@ -18645,7 +19034,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -18688,7 +19077,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>44</v>
       </c>
@@ -18731,7 +19120,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -18774,7 +19163,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>46</v>
       </c>
@@ -18817,7 +19206,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -18860,7 +19249,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>48</v>
       </c>
@@ -18903,7 +19292,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -18946,7 +19335,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>50</v>
       </c>
@@ -18989,7 +19378,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -19032,7 +19421,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>52</v>
       </c>
@@ -19075,7 +19464,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -19118,7 +19507,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>2019</v>
       </c>
@@ -19194,16 +19583,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="16.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="16.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="7" width="16.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="16.6640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="16.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -19246,7 +19635,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -19289,7 +19678,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -19332,7 +19721,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -19375,7 +19764,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -19418,7 +19807,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -19461,7 +19850,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -19504,7 +19893,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -19547,7 +19936,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -19590,7 +19979,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -19633,7 +20022,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -19676,7 +20065,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -19719,7 +20108,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -19762,7 +20151,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -19805,7 +20194,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -19848,7 +20237,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -19891,7 +20280,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -19934,7 +20323,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -19977,7 +20366,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
@@ -20020,7 +20409,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -20063,7 +20452,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>79</v>
       </c>
@@ -20084,7 +20473,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -20127,7 +20516,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
@@ -20170,7 +20559,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -20213,7 +20602,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
@@ -20256,7 +20645,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -20299,7 +20688,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
@@ -20342,7 +20731,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -20385,7 +20774,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
@@ -20428,7 +20817,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -20471,7 +20860,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
@@ -20514,7 +20903,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -20557,7 +20946,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -20600,7 +20989,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -20643,7 +21032,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -20686,7 +21075,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -20729,7 +21118,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -20772,7 +21161,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -20815,7 +21204,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>36</v>
       </c>
@@ -20858,7 +21247,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -20901,7 +21290,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -20944,7 +21333,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -20987,7 +21376,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -21030,7 +21419,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -21073,7 +21462,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -21116,7 +21505,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>42</v>
       </c>
@@ -21159,7 +21548,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -21202,7 +21591,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>44</v>
       </c>
@@ -21245,7 +21634,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -21288,7 +21677,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>46</v>
       </c>
@@ -21331,7 +21720,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -21374,7 +21763,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>48</v>
       </c>
@@ -21417,7 +21806,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -21460,7 +21849,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>50</v>
       </c>
@@ -21503,7 +21892,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -21546,7 +21935,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>52</v>
       </c>
@@ -21589,7 +21978,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -21632,7 +22021,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>2018</v>
       </c>
@@ -21702,16 +22091,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="16.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="16.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="7" width="16.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="16.6640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="16.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -21754,7 +22143,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -21797,7 +22186,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -21840,7 +22229,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -21883,7 +22272,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -21926,7 +22315,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -21969,7 +22358,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -22012,7 +22401,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -22055,7 +22444,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
@@ -22098,7 +22487,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -22141,7 +22530,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
@@ -22184,7 +22573,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -22227,7 +22616,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -22270,7 +22659,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -22313,7 +22702,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -22356,7 +22745,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -22399,7 +22788,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
@@ -22442,7 +22831,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -22485,7 +22874,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
@@ -22528,7 +22917,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -22571,7 +22960,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>79</v>
       </c>
@@ -22592,7 +22981,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -22635,7 +23024,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
@@ -22678,7 +23067,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -22721,7 +23110,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
@@ -22764,7 +23153,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -22807,7 +23196,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
@@ -22850,7 +23239,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -22893,7 +23282,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>26</v>
       </c>
@@ -22936,7 +23325,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -22979,7 +23368,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>28</v>
       </c>
@@ -23022,7 +23411,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -23065,7 +23454,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>30</v>
       </c>
@@ -23108,7 +23497,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -23151,7 +23540,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>32</v>
       </c>
@@ -23194,7 +23583,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -23237,7 +23626,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>34</v>
       </c>
@@ -23280,7 +23669,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -23323,7 +23712,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>36</v>
       </c>
@@ -23366,7 +23755,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -23409,7 +23798,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -23452,7 +23841,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -23495,7 +23884,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -23538,7 +23927,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -23581,7 +23970,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -23624,7 +24013,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>42</v>
       </c>
@@ -23667,7 +24056,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -23710,7 +24099,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>44</v>
       </c>
@@ -23753,7 +24142,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -23796,7 +24185,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>46</v>
       </c>
@@ -23839,7 +24228,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -23882,7 +24271,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>48</v>
       </c>
@@ -23925,7 +24314,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -23968,7 +24357,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>50</v>
       </c>
@@ -24011,7 +24400,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -24054,7 +24443,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>52</v>
       </c>
@@ -24097,7 +24486,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -24140,7 +24529,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>2017</v>
       </c>
